--- a/fullmodel_expcoefandCIs.xlsx
+++ b/fullmodel_expcoefandCIs.xlsx
@@ -1,21 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_78E9BEDD8F79A8D366075C52F37BD2721AC5B83B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D22052-E34A-4FA9-8123-382F630AE755}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CI_low</t>
+  </si>
+  <si>
+    <t>CI_high</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>df_error</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>TreatmentLB</t>
+  </si>
+  <si>
+    <t>TreatmentE_coli</t>
+  </si>
+  <si>
+    <t>TreatmentM_luteus</t>
+  </si>
+  <si>
+    <t>poly(Temperature_centered, 2)1</t>
+  </si>
+  <si>
+    <t>poly(Temperature_centered, 2)2</t>
+  </si>
+  <si>
+    <t>poly(Age_centered, 2)1</t>
+  </si>
+  <si>
+    <t>poly(Age_centered, 2)2</t>
+  </si>
+  <si>
+    <t>TreatmentLB:Temperature_centered</t>
+  </si>
+  <si>
+    <t>TreatmentE_coli:Temperature_centered</t>
+  </si>
+  <si>
+    <t>TreatmentM_luteus:Temperature_centered</t>
+  </si>
+  <si>
+    <t>poly(Temperature_centered, 2)1:poly(Age_centered, 2)1</t>
+  </si>
+  <si>
+    <t>poly(Temperature_centered, 2)2:poly(Age_centered, 2)1</t>
+  </si>
+  <si>
+    <t>poly(Temperature_centered, 2)1:poly(Age_centered, 2)2</t>
+  </si>
+  <si>
+    <t>poly(Temperature_centered, 2)2:poly(Age_centered, 2)2</t>
+  </si>
+  <si>
+    <t>SD (Intercept)</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>Plate_ID_Total</t>
+  </si>
+  <si>
+    <t>Batch_Number</t>
+  </si>
+  <si>
+    <t>SD (Observations)</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +173,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +225,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,78 +470,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Coefficient</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CI</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CI_low</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>df_error</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Effects</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>7.81312578090993</v>
+        <v>7.8131257809099299</v>
       </c>
       <c r="C2">
         <v>1.383081173237845</v>
@@ -430,31 +532,27 @@
         <v>0.95</v>
       </c>
       <c r="E2">
-        <v>5.514451708698354</v>
+        <v>5.5144517086983544</v>
       </c>
       <c r="F2">
-        <v>11.0699916678985</v>
+        <v>11.069991667898501</v>
       </c>
       <c r="G2">
-        <v>11.61339206289377</v>
+        <v>11.613392062893769</v>
       </c>
       <c r="H2">
         <v>285</v>
       </c>
       <c r="I2">
-        <v>8.689450794527464e-26</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TreatmentLB</t>
-        </is>
+        <v>8.689450794527464E-26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.974648876559707</v>
@@ -466,37 +564,33 @@
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>0.7874000216618376</v>
+        <v>0.78740002166183765</v>
       </c>
       <c r="F3">
-        <v>1.20642672903947</v>
+        <v>1.2064267290394699</v>
       </c>
       <c r="G3">
-        <v>-0.2369100017634818</v>
+        <v>-0.23691000176348179</v>
       </c>
       <c r="H3">
         <v>285</v>
       </c>
       <c r="I3">
-        <v>0.8128968058140856</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TreatmentE_coli</t>
-        </is>
+        <v>0.81289680581408563</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>2.353418372934118</v>
+        <v>2.3534183729341178</v>
       </c>
       <c r="C4">
-        <v>0.2471867195595848</v>
+        <v>0.24718671955958479</v>
       </c>
       <c r="D4">
         <v>0.95</v>
@@ -505,34 +599,30 @@
         <v>1.913874963001623</v>
       </c>
       <c r="F4">
-        <v>2.893907985178639</v>
+        <v>2.8939079851786391</v>
       </c>
       <c r="G4">
-        <v>8.148567176042732</v>
+        <v>8.1485671760427323</v>
       </c>
       <c r="H4">
         <v>285</v>
       </c>
       <c r="I4">
-        <v>1.170787332967492e-14</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TreatmentM_luteus</t>
-        </is>
+        <v>1.1707873329674921E-14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>2.243369770615835</v>
+        <v>2.2433697706158351</v>
       </c>
       <c r="C5">
-        <v>0.2380834024456668</v>
+        <v>0.23808340244566681</v>
       </c>
       <c r="D5">
         <v>0.95</v>
@@ -541,106 +631,94 @@
         <v>1.820453753050302</v>
       </c>
       <c r="F5">
-        <v>2.764534896467585</v>
+        <v>2.7645348964675849</v>
       </c>
       <c r="G5">
-        <v>7.613281159545746</v>
+        <v>7.6132811595457461</v>
       </c>
       <c r="H5">
         <v>285</v>
       </c>
       <c r="I5">
-        <v>3.943373111485557e-13</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>poly(Temperature_centered, 2)1</t>
-        </is>
+        <v>3.9433731114855569E-13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>43.9183220751554</v>
+        <v>43.918322075155402</v>
       </c>
       <c r="C6">
-        <v>58.46748951121361</v>
+        <v>58.467489511213607</v>
       </c>
       <c r="D6">
         <v>0.95</v>
       </c>
       <c r="E6">
-        <v>3.196151097198133</v>
+        <v>3.1961510971981331</v>
       </c>
       <c r="F6">
-        <v>603.4817989637468</v>
+        <v>603.48179896374677</v>
       </c>
       <c r="G6">
-        <v>2.841128607654244</v>
+        <v>2.8411286076542441</v>
       </c>
       <c r="H6">
         <v>285</v>
       </c>
       <c r="I6">
-        <v>0.004819659352065816</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>poly(Temperature_centered, 2)2</t>
-        </is>
+        <v>4.8196593520658162E-3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.05341439226174027</v>
+        <v>5.3414392261740273E-2</v>
       </c>
       <c r="C7">
-        <v>0.04097398652904014</v>
+        <v>4.0973986529040142E-2</v>
       </c>
       <c r="D7">
         <v>0.95</v>
       </c>
       <c r="E7">
-        <v>0.01180103334790957</v>
+        <v>1.180103334790957E-2</v>
       </c>
       <c r="F7">
         <v>0.2417667348763535</v>
       </c>
       <c r="G7">
-        <v>-3.819174692208558</v>
+        <v>-3.8191746922085579</v>
       </c>
       <c r="H7">
         <v>285</v>
       </c>
       <c r="I7">
-        <v>0.0001643462865987446</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>poly(Age_centered, 2)1</t>
-        </is>
+        <v>1.643462865987446E-4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>4.404595253200663</v>
+        <v>4.4045952532006627</v>
       </c>
       <c r="C8">
-        <v>3.221633723408314</v>
+        <v>3.2216337234083139</v>
       </c>
       <c r="D8">
         <v>0.95</v>
@@ -652,37 +730,33 @@
         <v>18.58453738335524</v>
       </c>
       <c r="G8">
-        <v>2.027066557124831</v>
+        <v>2.0270665571248312</v>
       </c>
       <c r="H8">
         <v>285</v>
       </c>
       <c r="I8">
-        <v>0.04358627640096486</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>poly(Age_centered, 2)2</t>
-        </is>
+        <v>4.3586276400964859E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.4662237562373885</v>
+        <v>0.46622375623738849</v>
       </c>
       <c r="C9">
-        <v>0.3359339484525891</v>
+        <v>0.33593394845258912</v>
       </c>
       <c r="D9">
         <v>0.95</v>
       </c>
       <c r="E9">
-        <v>0.1128891023030884</v>
+        <v>0.11288910230308841</v>
       </c>
       <c r="F9">
         <v>1.925470098048192</v>
@@ -694,142 +768,126 @@
         <v>285</v>
       </c>
       <c r="I9">
-        <v>0.2904742263711201</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TreatmentLB:Temperature_centered</t>
-        </is>
+        <v>0.29047422637112008</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.860781406992743</v>
+        <v>0.86078140699274297</v>
       </c>
       <c r="C10">
-        <v>0.09270057909482962</v>
+        <v>9.2700579094829622E-2</v>
       </c>
       <c r="D10">
         <v>0.95</v>
       </c>
       <c r="E10">
-        <v>0.6963587696716513</v>
+        <v>0.69635876967165133</v>
       </c>
       <c r="F10">
-        <v>1.064027140742089</v>
+        <v>1.0640271407420889</v>
       </c>
       <c r="G10">
-        <v>-1.392049311978674</v>
+        <v>-1.3920493119786741</v>
       </c>
       <c r="H10">
         <v>285</v>
       </c>
       <c r="I10">
-        <v>0.1649927736201293</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TreatmentE_coli:Temperature_centered</t>
-        </is>
+        <v>0.16499277362012929</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.6325242937409528</v>
+        <v>0.63252429374095276</v>
       </c>
       <c r="C11">
-        <v>0.06760836278084772</v>
+        <v>6.7608362780847725E-2</v>
       </c>
       <c r="D11">
         <v>0.95</v>
       </c>
       <c r="E11">
-        <v>0.5125156998117079</v>
+        <v>0.51251569981170786</v>
       </c>
       <c r="F11">
-        <v>0.7806336124327086</v>
+        <v>0.78063361243270857</v>
       </c>
       <c r="G11">
-        <v>-4.285258460023274</v>
+        <v>-4.2852584600232744</v>
       </c>
       <c r="H11">
         <v>285</v>
       </c>
       <c r="I11">
-        <v>2.49932946625872e-05</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TreatmentM_luteus:Temperature_centered</t>
-        </is>
+        <v>2.49932946625872E-5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.7658027431520504</v>
+        <v>0.76580274315205044</v>
       </c>
       <c r="C12">
-        <v>0.08053004104321447</v>
+        <v>8.053004104321447E-2</v>
       </c>
       <c r="D12">
         <v>0.95</v>
       </c>
       <c r="E12">
-        <v>0.6226224896525812</v>
+        <v>0.62262248965258116</v>
       </c>
       <c r="F12">
-        <v>0.9419091844023212</v>
+        <v>0.94190918440232119</v>
       </c>
       <c r="G12">
-        <v>-2.53743382106955</v>
+        <v>-2.5374338210695502</v>
       </c>
       <c r="H12">
         <v>285</v>
       </c>
       <c r="I12">
-        <v>0.01169995139530939</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>poly(Temperature_centered, 2)1:poly(Age_centered, 2)1</t>
-        </is>
+        <v>1.1699951395309389E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>7.083984052696117e-12</v>
+        <v>7.0839840526961166E-12</v>
       </c>
       <c r="C13">
-        <v>8.438455539435234e-11</v>
+        <v>8.4384555394352343E-11</v>
       </c>
       <c r="D13">
         <v>0.95</v>
       </c>
       <c r="E13">
-        <v>4.650572757085728e-22</v>
+        <v>4.6505727570857279E-22</v>
       </c>
       <c r="F13">
-        <v>0.1079067733805324</v>
+        <v>0.10790677338053239</v>
       </c>
       <c r="G13">
         <v>-2.15523361796058</v>
@@ -838,70 +896,62 @@
         <v>285</v>
       </c>
       <c r="I13">
-        <v>0.03198091649802882</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>poly(Temperature_centered, 2)2:poly(Age_centered, 2)1</t>
-        </is>
+        <v>3.1980916498028818E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>2.03903649175779e-05</v>
+        <v>2.0390364917577899E-5</v>
       </c>
       <c r="C14">
-        <v>0.0002653275494135794</v>
+        <v>2.653275494135794E-4</v>
       </c>
       <c r="D14">
         <v>0.95</v>
       </c>
       <c r="E14">
-        <v>1.534670582965588e-16</v>
+        <v>1.534670582965588E-16</v>
       </c>
       <c r="F14">
-        <v>2709161.080474776</v>
+        <v>2709161.0804747762</v>
       </c>
       <c r="G14">
-        <v>-0.8300121040689201</v>
+        <v>-0.83001210406892012</v>
       </c>
       <c r="H14">
         <v>285</v>
       </c>
       <c r="I14">
-        <v>0.4072266458171678</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>poly(Temperature_centered, 2)1:poly(Age_centered, 2)2</t>
-        </is>
+        <v>0.40722664581716778</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>58663313831.8952</v>
+        <v>58663313831.895203</v>
       </c>
       <c r="C15">
-        <v>704540737785.132</v>
+        <v>704540737785.13196</v>
       </c>
       <c r="D15">
         <v>0.95</v>
       </c>
       <c r="E15">
-        <v>3.176296459784194</v>
+        <v>3.1762964597841941</v>
       </c>
       <c r="F15">
-        <v>1.083458182607191e+21</v>
+        <v>1.083458182607191E+21</v>
       </c>
       <c r="G15">
         <v>2.064552841958196</v>
@@ -910,25 +960,21 @@
         <v>285</v>
       </c>
       <c r="I15">
-        <v>0.03986990007855029</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>poly(Temperature_centered, 2)2:poly(Age_centered, 2)2</t>
-        </is>
+        <v>3.9869900078550291E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>32447300583.30573</v>
+        <v>32447300583.305729</v>
       </c>
       <c r="C16">
-        <v>400419095517.1683</v>
+        <v>400419095517.16827</v>
       </c>
       <c r="D16">
         <v>0.95</v>
@@ -937,7 +983,7 @@
         <v>0.9163150242533481</v>
       </c>
       <c r="F16">
-        <v>1.148979649221926e+21</v>
+        <v>1.1489796492219261E+21</v>
       </c>
       <c r="G16">
         <v>1.961240688532099</v>
@@ -946,108 +992,88 @@
         <v>285</v>
       </c>
       <c r="I16">
-        <v>0.0508244213841588</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SD (Intercept)</t>
-        </is>
+        <v>5.0824421384158797E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
       </c>
       <c r="B17">
-        <v>0.2817315458391034</v>
+        <v>0.28173154583910343</v>
       </c>
       <c r="C17">
-        <v>0.06293240701171635</v>
+        <v>6.2932407011716346E-2</v>
       </c>
       <c r="D17">
         <v>0.95</v>
       </c>
       <c r="E17">
-        <v>0.1818429429210482</v>
+        <v>0.18184294292104819</v>
       </c>
       <c r="F17">
-        <v>0.4364902076807703</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Plate_ID_Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SD (Intercept)</t>
-        </is>
+        <v>0.43649020768077029</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0.369380564980129</v>
       </c>
       <c r="C18">
-        <v>0.1409015062350318</v>
+        <v>0.14090150623503181</v>
       </c>
       <c r="D18">
         <v>0.95</v>
       </c>
       <c r="E18">
-        <v>0.1748961464141199</v>
+        <v>0.17489614641411991</v>
       </c>
       <c r="F18">
-        <v>0.7801315499654941</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Batch_Number</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SD (Observations)</t>
-        </is>
+        <v>0.78013154996549405</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>0.6349947679459961</v>
+        <v>0.63499476794599607</v>
       </c>
       <c r="C19">
-        <v>0.0282048635771476</v>
+        <v>2.8204863577147601E-2</v>
       </c>
       <c r="D19">
         <v>0.95</v>
       </c>
       <c r="E19">
-        <v>0.5820521858587691</v>
+        <v>0.58205218585876906</v>
       </c>
       <c r="F19">
-        <v>0.6927529268254093</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Residual</t>
-        </is>
+        <v>0.69275292682540934</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
